--- a/result/Sampling_indiv.xlsx
+++ b/result/Sampling_indiv.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J87"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>level_of_deepest_hierarchy</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>num_of_components</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -518,6 +523,9 @@
       <c r="J2" t="n">
         <v>4</v>
       </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -552,6 +560,9 @@
       <c r="J3" t="n">
         <v>3</v>
       </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -586,6 +597,9 @@
       <c r="J4" t="n">
         <v>4</v>
       </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -620,6 +634,9 @@
       <c r="J5" t="n">
         <v>4</v>
       </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -654,6 +671,9 @@
       <c r="J6" t="n">
         <v>3</v>
       </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -688,6 +708,9 @@
       <c r="J7" t="n">
         <v>4</v>
       </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -722,6 +745,9 @@
       <c r="J8" t="n">
         <v>4</v>
       </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -756,6 +782,9 @@
       <c r="J9" t="n">
         <v>3</v>
       </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -790,6 +819,9 @@
       <c r="J10" t="n">
         <v>3</v>
       </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -824,6 +856,9 @@
       <c r="J11" t="n">
         <v>1</v>
       </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -858,6 +893,9 @@
       <c r="J12" t="n">
         <v>5</v>
       </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -892,6 +930,9 @@
       <c r="J13" t="n">
         <v>1</v>
       </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -926,6 +967,9 @@
       <c r="J14" t="n">
         <v>1</v>
       </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -960,6 +1004,9 @@
       <c r="J15" t="n">
         <v>1</v>
       </c>
+      <c r="K15" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -994,6 +1041,9 @@
       <c r="J16" t="n">
         <v>4</v>
       </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1028,6 +1078,9 @@
       <c r="J17" t="n">
         <v>4</v>
       </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1062,6 +1115,9 @@
       <c r="J18" t="n">
         <v>4</v>
       </c>
+      <c r="K18" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1096,6 +1152,9 @@
       <c r="J19" t="n">
         <v>2</v>
       </c>
+      <c r="K19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1130,6 +1189,9 @@
       <c r="J20" t="n">
         <v>4</v>
       </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1164,6 +1226,9 @@
       <c r="J21" t="n">
         <v>1</v>
       </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1198,6 +1263,9 @@
       <c r="J22" t="n">
         <v>1</v>
       </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1232,6 +1300,9 @@
       <c r="J23" t="n">
         <v>2</v>
       </c>
+      <c r="K23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1266,6 +1337,9 @@
       <c r="J24" t="n">
         <v>6</v>
       </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1300,6 +1374,9 @@
       <c r="J25" t="n">
         <v>4</v>
       </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1334,6 +1411,9 @@
       <c r="J26" t="n">
         <v>1</v>
       </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1368,6 +1448,9 @@
       <c r="J27" t="n">
         <v>4</v>
       </c>
+      <c r="K27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1402,6 +1485,9 @@
       <c r="J28" t="n">
         <v>5</v>
       </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1436,6 +1522,9 @@
       <c r="J29" t="n">
         <v>1</v>
       </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1470,6 +1559,9 @@
       <c r="J30" t="n">
         <v>5</v>
       </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1504,6 +1596,9 @@
       <c r="J31" t="n">
         <v>3</v>
       </c>
+      <c r="K31" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1538,6 +1633,9 @@
       <c r="J32" t="n">
         <v>4</v>
       </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1572,6 +1670,9 @@
       <c r="J33" t="n">
         <v>5</v>
       </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1606,6 +1707,9 @@
       <c r="J34" t="n">
         <v>4</v>
       </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1640,6 +1744,9 @@
       <c r="J35" t="n">
         <v>1</v>
       </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1674,6 +1781,9 @@
       <c r="J36" t="n">
         <v>4</v>
       </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1708,6 +1818,9 @@
       <c r="J37" t="n">
         <v>3</v>
       </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1742,6 +1855,9 @@
       <c r="J38" t="n">
         <v>3</v>
       </c>
+      <c r="K38" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1776,6 +1892,9 @@
       <c r="J39" t="n">
         <v>6</v>
       </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1810,6 +1929,9 @@
       <c r="J40" t="n">
         <v>3</v>
       </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1844,6 +1966,9 @@
       <c r="J41" t="n">
         <v>4</v>
       </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1878,6 +2003,9 @@
       <c r="J42" t="n">
         <v>3</v>
       </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1912,6 +2040,9 @@
       <c r="J43" t="n">
         <v>3</v>
       </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1946,6 +2077,9 @@
       <c r="J44" t="n">
         <v>5</v>
       </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1980,6 +2114,9 @@
       <c r="J45" t="n">
         <v>3</v>
       </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -2014,6 +2151,9 @@
       <c r="J46" t="n">
         <v>4</v>
       </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2048,6 +2188,9 @@
       <c r="J47" t="n">
         <v>5</v>
       </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -2082,6 +2225,9 @@
       <c r="J48" t="n">
         <v>4</v>
       </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -2116,6 +2262,9 @@
       <c r="J49" t="n">
         <v>4</v>
       </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -2150,6 +2299,9 @@
       <c r="J50" t="n">
         <v>3</v>
       </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -2184,6 +2336,9 @@
       <c r="J51" t="n">
         <v>1</v>
       </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -2218,6 +2373,9 @@
       <c r="J52" t="n">
         <v>3</v>
       </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -2252,6 +2410,9 @@
       <c r="J53" t="n">
         <v>5</v>
       </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -2286,6 +2447,9 @@
       <c r="J54" t="n">
         <v>3</v>
       </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -2320,6 +2484,9 @@
       <c r="J55" t="n">
         <v>4</v>
       </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -2354,6 +2521,9 @@
       <c r="J56" t="n">
         <v>4</v>
       </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -2388,6 +2558,9 @@
       <c r="J57" t="n">
         <v>3</v>
       </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2422,6 +2595,9 @@
       <c r="J58" t="n">
         <v>1</v>
       </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -2456,6 +2632,9 @@
       <c r="J59" t="n">
         <v>5</v>
       </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2490,6 +2669,9 @@
       <c r="J60" t="n">
         <v>3</v>
       </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -2524,6 +2706,9 @@
       <c r="J61" t="n">
         <v>1</v>
       </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -2558,6 +2743,9 @@
       <c r="J62" t="n">
         <v>3</v>
       </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -2592,6 +2780,9 @@
       <c r="J63" t="n">
         <v>3</v>
       </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -2626,6 +2817,9 @@
       <c r="J64" t="n">
         <v>6</v>
       </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -2660,6 +2854,9 @@
       <c r="J65" t="n">
         <v>3</v>
       </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2694,6 +2891,9 @@
       <c r="J66" t="n">
         <v>4</v>
       </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -2728,6 +2928,9 @@
       <c r="J67" t="n">
         <v>3</v>
       </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -2762,6 +2965,9 @@
       <c r="J68" t="n">
         <v>1</v>
       </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -2796,6 +3002,9 @@
       <c r="J69" t="n">
         <v>3</v>
       </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -2830,6 +3039,9 @@
       <c r="J70" t="n">
         <v>1</v>
       </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -2864,6 +3076,9 @@
       <c r="J71" t="n">
         <v>3</v>
       </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -2898,6 +3113,9 @@
       <c r="J72" t="n">
         <v>1</v>
       </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -2932,6 +3150,9 @@
       <c r="J73" t="n">
         <v>2</v>
       </c>
+      <c r="K73" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -2966,6 +3187,9 @@
       <c r="J74" t="n">
         <v>1</v>
       </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -3000,6 +3224,9 @@
       <c r="J75" t="n">
         <v>3</v>
       </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -3034,6 +3261,9 @@
       <c r="J76" t="n">
         <v>1</v>
       </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -3068,6 +3298,9 @@
       <c r="J77" t="n">
         <v>4</v>
       </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -3102,6 +3335,9 @@
       <c r="J78" t="n">
         <v>1</v>
       </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -3136,6 +3372,9 @@
       <c r="J79" t="n">
         <v>5</v>
       </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -3170,6 +3409,9 @@
       <c r="J80" t="n">
         <v>4</v>
       </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -3204,6 +3446,9 @@
       <c r="J81" t="n">
         <v>4</v>
       </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -3238,6 +3483,9 @@
       <c r="J82" t="n">
         <v>3</v>
       </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -3272,6 +3520,9 @@
       <c r="J83" t="n">
         <v>1</v>
       </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -3306,6 +3557,9 @@
       <c r="J84" t="n">
         <v>4</v>
       </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -3340,6 +3594,9 @@
       <c r="J85" t="n">
         <v>5</v>
       </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -3374,6 +3631,9 @@
       <c r="J86" t="n">
         <v>1</v>
       </c>
+      <c r="K86" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -3407,6 +3667,9 @@
       </c>
       <c r="J87" t="n">
         <v>6</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/result/Sampling_indiv.xlsx
+++ b/result/Sampling_indiv.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,40 +451,35 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>num_of_hierarchies</t>
+          <t>num_of_crosslinks</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>num_of_crosslinks</t>
+          <t>ASPL</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ASPL</t>
+          <t>CC</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CC</t>
+          <t>network_density</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>network_density</t>
+          <t>complexity</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>complexity</t>
+          <t>level_of_deepest_hierarchy</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>level_of_deepest_hierarchy</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>num_of_components</t>
         </is>
@@ -503,27 +498,24 @@
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.472727272727273</v>
       </c>
       <c r="F2" t="n">
-        <v>2.472727272727273</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9090909090909091</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
-      </c>
-      <c r="K2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -540,27 +532,24 @@
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>2.690058479532164</v>
       </c>
       <c r="F3" t="n">
-        <v>2.690058479532164</v>
+        <v>0.1663324979114453</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1663324979114453</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08771929824561403</v>
+        <v>1.578947368421053</v>
       </c>
       <c r="I3" t="n">
-        <v>1.578947368421053</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -577,27 +566,24 @@
         <v>43</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
+        <v>2.385185185185185</v>
       </c>
       <c r="F4" t="n">
-        <v>2.385185185185185</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.1405228758169935</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1405228758169935</v>
+        <v>2.388888888888889</v>
       </c>
       <c r="I4" t="n">
-        <v>2.388888888888889</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -614,27 +600,24 @@
         <v>43</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>3.197628458498024</v>
       </c>
       <c r="F5" t="n">
-        <v>3.197628458498024</v>
+        <v>0.1186039633244602</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1186039633244602</v>
+        <v>0.08498023715415019</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08498023715415019</v>
+        <v>1.869565217391304</v>
       </c>
       <c r="I5" t="n">
-        <v>1.869565217391304</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -651,27 +634,24 @@
         <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>2.203703703703704</v>
       </c>
       <c r="F6" t="n">
-        <v>2.203703703703704</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="G6" t="n">
-        <v>0.11</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1136363636363636</v>
+        <v>1.25</v>
       </c>
       <c r="I6" t="n">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -688,27 +668,24 @@
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>3.158730158730159</v>
       </c>
       <c r="F7" t="n">
-        <v>3.158730158730159</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03636363636363636</v>
+        <v>0.03968253968253968</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03968253968253968</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="I7" t="n">
-        <v>1.071428571428571</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
-      </c>
-      <c r="K7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,24 +705,21 @@
         <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>2.858461538461539</v>
       </c>
       <c r="F8" t="n">
-        <v>2.858461538461539</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.06923076923076923</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06923076923076923</v>
+        <v>1.730769230769231</v>
       </c>
       <c r="I8" t="n">
-        <v>1.730769230769231</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
-      </c>
-      <c r="K8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -762,27 +736,24 @@
         <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2.307692307692307</v>
       </c>
       <c r="F9" t="n">
-        <v>2.307692307692307</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1282051282051282</v>
+        <v>1.538461538461539</v>
       </c>
       <c r="I9" t="n">
-        <v>1.538461538461539</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -799,27 +770,24 @@
         <v>14</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>1.523809523809524</v>
       </c>
       <c r="F10" t="n">
-        <v>1.523809523809524</v>
+        <v>0.4571428571428572</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4571428571428572</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3333333333333333</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
-      </c>
-      <c r="K10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -836,27 +804,24 @@
         <v>41</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>2.673333333333333</v>
       </c>
       <c r="F11" t="n">
-        <v>2.673333333333333</v>
+        <v>0.02659100462379151</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02659100462379151</v>
+        <v>0.06833333333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06833333333333333</v>
+        <v>1.64</v>
       </c>
       <c r="I11" t="n">
-        <v>1.64</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -873,27 +838,24 @@
         <v>28</v>
       </c>
       <c r="D12" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>3.545454545454545</v>
       </c>
       <c r="F12" t="n">
-        <v>3.545454545454545</v>
+        <v>0.08115942028985508</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08115942028985508</v>
+        <v>0.05533596837944664</v>
       </c>
       <c r="H12" t="n">
-        <v>0.05533596837944664</v>
+        <v>1.217391304347826</v>
       </c>
       <c r="I12" t="n">
-        <v>1.217391304347826</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
-      </c>
-      <c r="K12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -910,27 +872,24 @@
         <v>39</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>3.086666666666666</v>
       </c>
       <c r="F13" t="n">
-        <v>3.086666666666666</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.065</v>
       </c>
       <c r="H13" t="n">
-        <v>0.065</v>
+        <v>1.56</v>
       </c>
       <c r="I13" t="n">
-        <v>1.56</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -947,27 +906,24 @@
         <v>14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>2.712121212121212</v>
       </c>
       <c r="F14" t="n">
-        <v>2.712121212121212</v>
+        <v>0.05925925925925926</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05925925925925926</v>
+        <v>0.1060606060606061</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1060606060606061</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="I14" t="n">
-        <v>1.166666666666667</v>
+        <v>4</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -984,2691 +940,2676 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01818181818181818</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1818181818181818</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Book_22</t>
+          <t>Sampling_GPT_15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C16" t="n">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>3.206896551724138</v>
       </c>
       <c r="F16" t="n">
-        <v>2.311111111111111</v>
+        <v>0.02646176911544228</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1166666666666667</v>
+        <v>0.05788177339901478</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1555555555555556</v>
+        <v>1.620689655172414</v>
       </c>
       <c r="I16" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
-      </c>
-      <c r="K16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Book_23</t>
+          <t>Sampling_Book_17</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2.238095238095238</v>
       </c>
       <c r="F17" t="n">
-        <v>2.133333333333333</v>
+        <v>0.1518939393939394</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.1047619047619048</v>
       </c>
       <c r="H17" t="n">
-        <v>0.06190476190476191</v>
+        <v>1.466666666666667</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8666666666666667</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Book_24</t>
+          <t>Sampling_Book_18</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C18" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D18" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>15</v>
+        <v>2.599033816425121</v>
       </c>
       <c r="F18" t="n">
-        <v>2.323529411764706</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3329059829059829</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1139705882352941</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>1.823529411764706</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>4</v>
-      </c>
-      <c r="K18" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Book_25</t>
+          <t>Sampling_Book_19</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>2.758241758241758</v>
       </c>
       <c r="F19" t="n">
-        <v>1.993939393939394</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09047619047619047</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="I19" t="n">
-        <v>1.266666666666667</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Book_26</t>
+          <t>Sampling_Book_20</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C20" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>2.527472527472528</v>
       </c>
       <c r="F20" t="n">
-        <v>2.484848484848485</v>
+        <v>0.1542857142857143</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.0989010989010989</v>
       </c>
       <c r="H20" t="n">
-        <v>0.08333333333333333</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9166666666666666</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
-      </c>
-      <c r="K20" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Book_27</t>
+          <t>Sampling_Book_21</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>2.32579185520362</v>
       </c>
       <c r="F21" t="n">
-        <v>2.288888888888889</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.05514705882352941</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Book_28</t>
+          <t>Sampling_Book_22</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C22" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>2.311111111111111</v>
       </c>
       <c r="F22" t="n">
-        <v>1.888888888888889</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1797385620915033</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1666666666666667</v>
+        <v>1.4</v>
       </c>
       <c r="I22" t="n">
-        <v>1.333333333333333</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Book_29</t>
+          <t>Sampling_Book_23</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D23" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="F23" t="n">
-        <v>3.988603988603989</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04305555555555555</v>
+        <v>0.06190476190476191</v>
       </c>
       <c r="H23" t="n">
-        <v>0.04629629629629629</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="I23" t="n">
-        <v>1.25</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
         <v>2</v>
       </c>
-      <c r="K23" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Book_30</t>
+          <t>Sampling_Book_24</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C24" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>2.323529411764706</v>
       </c>
       <c r="F24" t="n">
-        <v>2.968421052631579</v>
+        <v>0.3326797385620915</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06468356448270365</v>
+        <v>0.1139705882352941</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1</v>
+        <v>1.823529411764706</v>
       </c>
       <c r="I24" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>6</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Book_31</t>
+          <t>Sampling_Book_25</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C25" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>1.993939393939394</v>
       </c>
       <c r="F25" t="n">
-        <v>2.690909090909091</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1767676767676768</v>
+        <v>0.09047619047619047</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1272727272727273</v>
+        <v>1.266666666666667</v>
       </c>
       <c r="I25" t="n">
-        <v>1.272727272727273</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Book_33</t>
+          <t>Sampling_Book_26</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C26" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>9</v>
+        <v>2.484848484848485</v>
       </c>
       <c r="F26" t="n">
-        <v>2.960144927536232</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1956283068783069</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="H26" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="I26" t="n">
-        <v>1.916666666666667</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Book_35</t>
+          <t>Sampling_Book_27</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C27" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>2.288888888888889</v>
       </c>
       <c r="F27" t="n">
-        <v>2.547368421052632</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08107638888888889</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H27" t="n">
-        <v>0.06725146198830409</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>1.210526315789474</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Book_36</t>
+          <t>Sampling_Book_28</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C28" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>1.888888888888889</v>
       </c>
       <c r="F28" t="n">
-        <v>2.638095238095238</v>
+        <v>0.1797385620915033</v>
       </c>
       <c r="G28" t="n">
-        <v>0.08498316498316498</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="I28" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>5</v>
-      </c>
-      <c r="K28" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Book_37</t>
+          <t>Sampling_Book_29</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>3.988603988603989</v>
       </c>
       <c r="F29" t="n">
-        <v>2.230769230769231</v>
+        <v>0.08303571428571428</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2805860805860806</v>
+        <v>0.04629629629629629</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1153846153846154</v>
+        <v>1.25</v>
       </c>
       <c r="I29" t="n">
-        <v>1.384615384615385</v>
+        <v>8</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Book_38</t>
+          <t>Sampling_Book_30</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C30" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>2.968421052631579</v>
       </c>
       <c r="F30" t="n">
-        <v>2.761904761904762</v>
+        <v>0.06468356448270365</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.1</v>
+        <v>1.9</v>
       </c>
       <c r="I30" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="J30" t="n">
-        <v>5</v>
-      </c>
-      <c r="K30" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Book_39</t>
+          <t>Sampling_Book_31</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>2.690909090909091</v>
       </c>
       <c r="F31" t="n">
-        <v>1.3</v>
+        <v>0.1767676767676768</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1777777777777778</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1444444444444444</v>
+        <v>1.272727272727273</v>
       </c>
       <c r="I31" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Book_40</t>
+          <t>Sampling_Book_33</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C32" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D32" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>2.960144927536232</v>
       </c>
       <c r="F32" t="n">
-        <v>2.860294117647059</v>
+        <v>0.1956283068783069</v>
       </c>
       <c r="G32" t="n">
-        <v>0.06862745098039215</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0625</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
-      </c>
-      <c r="K32" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Book_41</t>
+          <t>Sampling_Book_35</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C33" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E33" t="n">
+        <v>2.547368421052632</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.1365497076023392</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.06725146198830409</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1.210526315789474</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4</v>
+      </c>
+      <c r="J33" t="n">
         <v>2</v>
-      </c>
-      <c r="F33" t="n">
-        <v>2.835164835164835</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.1150793650793651</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.08241758241758242</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1.071428571428571</v>
-      </c>
-      <c r="J33" t="n">
-        <v>5</v>
-      </c>
-      <c r="K33" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Book_42</t>
+          <t>Sampling_Book_36</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C34" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D34" t="n">
         <v>4</v>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>2.638095238095238</v>
       </c>
       <c r="F34" t="n">
-        <v>1.964285714285714</v>
+        <v>0.08498316498316498</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2013888888888889</v>
+        <v>0.1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2142857142857143</v>
+        <v>1.4</v>
       </c>
       <c r="I34" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
-      </c>
-      <c r="K34" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Book_43</t>
+          <t>Sampling_Book_37</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C35" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E35" t="n">
-        <v>6</v>
+        <v>2.230769230769231</v>
       </c>
       <c r="F35" t="n">
-        <v>2.983333333333333</v>
+        <v>0.2805860805860806</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1585069444444445</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1</v>
+        <v>1.384615384615385</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Book_44</t>
+          <t>Sampling_Book_38</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C36" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
+        <v>2.761904761904762</v>
       </c>
       <c r="F36" t="n">
-        <v>2.58974358974359</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02905982905982906</v>
+        <v>0.1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.09615384615384616</v>
+        <v>1.4</v>
       </c>
       <c r="I36" t="n">
-        <v>1.153846153846154</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>4</v>
-      </c>
-      <c r="K36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Book_45</t>
+          <t>Sampling_Book_39</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D37" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E37" t="n">
-        <v>8</v>
+        <v>1.3</v>
       </c>
       <c r="F37" t="n">
-        <v>1.75</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3625</v>
+        <v>0.1444444444444444</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2678571428571428</v>
+        <v>1.3</v>
       </c>
       <c r="I37" t="n">
-        <v>1.875</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
         <v>3</v>
-      </c>
-      <c r="K37" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_46</t>
+          <t>Sampling_Book_40</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C38" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D38" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>2.860294117647059</v>
       </c>
       <c r="F38" t="n">
-        <v>1.566666666666667</v>
+        <v>0.06862745098039215</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1107142857142857</v>
+        <v>0.0625</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1111111111111111</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>3</v>
-      </c>
-      <c r="K38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Book_47</t>
+          <t>Sampling_Book_41</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C39" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D39" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>2.835164835164835</v>
       </c>
       <c r="F39" t="n">
-        <v>3.661764705882353</v>
+        <v>0.1150793650793651</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1600301659125189</v>
+        <v>0.08241758241758242</v>
       </c>
       <c r="H39" t="n">
-        <v>0.08088235294117647</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="I39" t="n">
-        <v>1.294117647058824</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
-        <v>6</v>
-      </c>
-      <c r="K39" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_48</t>
+          <t>Sampling_Book_42</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>1.964285714285714</v>
       </c>
       <c r="F40" t="n">
-        <v>1.80952380952381</v>
+        <v>0.2013888888888889</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3142857142857143</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2380952380952381</v>
+        <v>1.5</v>
       </c>
       <c r="I40" t="n">
-        <v>1.428571428571429</v>
+        <v>4</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
-      </c>
-      <c r="K40" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_49</t>
+          <t>Sampling_Book_43</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D41" t="n">
-        <v>3.333333333333333</v>
+        <v>6</v>
       </c>
       <c r="E41" t="n">
-        <v>11</v>
+        <v>2.983333333333333</v>
       </c>
       <c r="F41" t="n">
-        <v>2.529411764705882</v>
+        <v>0.1585069444444445</v>
       </c>
       <c r="G41" t="n">
-        <v>0.01073403720462544</v>
+        <v>0.1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1213235294117647</v>
+        <v>1.5</v>
       </c>
       <c r="I41" t="n">
-        <v>1.941176470588235</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>4</v>
-      </c>
-      <c r="K41" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_50</t>
+          <t>Sampling_Book_44</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C42" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D42" t="n">
         <v>3</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>2.58974358974359</v>
       </c>
       <c r="F42" t="n">
-        <v>1.904761904761905</v>
+        <v>0.02905982905982906</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1428571428571428</v>
+        <v>1.153846153846154</v>
       </c>
       <c r="I42" t="n">
-        <v>0.8571428571428571</v>
+        <v>4</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
-      </c>
-      <c r="K42" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_51</t>
+          <t>Sampling_Book_45</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C43" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D43" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E43" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.3625</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.2678571428571428</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="I43" t="n">
         <v>2</v>
       </c>
-      <c r="F43" t="n">
-        <v>1.911111111111111</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.1228571428571428</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.1222222222222222</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1.1</v>
-      </c>
       <c r="J43" t="n">
-        <v>3</v>
-      </c>
-      <c r="K43" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_52</t>
+          <t>Sampling_Web_46</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C44" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="D44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>6</v>
+        <v>1.566666666666667</v>
       </c>
       <c r="F44" t="n">
-        <v>2.953216374269006</v>
+        <v>0.155</v>
       </c>
       <c r="G44" t="n">
-        <v>0.08738191632928474</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1198830409356725</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>2.157894736842105</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>5</v>
-      </c>
-      <c r="K44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_53</t>
+          <t>Sampling_Book_47</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C45" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D45" t="n">
         <v>3</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>3.661764705882353</v>
       </c>
       <c r="F45" t="n">
-        <v>1.904761904761905</v>
+        <v>0.1600301659125189</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.08088235294117647</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1428571428571428</v>
+        <v>1.294117647058824</v>
       </c>
       <c r="I45" t="n">
-        <v>0.8571428571428571</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>3</v>
-      </c>
-      <c r="K45" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_54</t>
+          <t>Sampling_Web_48</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C46" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D46" t="n">
         <v>4</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1.80952380952381</v>
       </c>
       <c r="F46" t="n">
-        <v>3.176470588235294</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="H46" t="n">
-        <v>0.05555555555555555</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9444444444444444</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>4</v>
-      </c>
-      <c r="K46" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_55</t>
+          <t>Sampling_Web_49</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C47" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D47" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>2.529411764705882</v>
       </c>
       <c r="F47" t="n">
-        <v>3.422924901185771</v>
+        <v>0.01073403720462544</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>0.1213235294117647</v>
       </c>
       <c r="H47" t="n">
-        <v>0.04940711462450593</v>
+        <v>1.941176470588235</v>
       </c>
       <c r="I47" t="n">
-        <v>1.08695652173913</v>
+        <v>4</v>
       </c>
       <c r="J47" t="n">
-        <v>5</v>
-      </c>
-      <c r="K47" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_56</t>
+          <t>Sampling_Web_50</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1.904761904761905</v>
       </c>
       <c r="F48" t="n">
-        <v>2.111111111111111</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I48" t="n">
-        <v>1.111111111111111</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>4</v>
-      </c>
-      <c r="K48" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_58</t>
+          <t>Sampling_Web_51</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C49" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1.911111111111111</v>
       </c>
       <c r="F49" t="n">
-        <v>2.714285714285714</v>
+        <v>0.1228571428571428</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>0.1222222222222222</v>
       </c>
       <c r="H49" t="n">
-        <v>0.07692307692307693</v>
+        <v>1.1</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
-        <v>4</v>
-      </c>
-      <c r="K49" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_59</t>
+          <t>Sampling_Web_52</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C50" t="n">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="D50" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>2.953216374269006</v>
       </c>
       <c r="F50" t="n">
-        <v>2.538461538461538</v>
+        <v>0.08738191632928474</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>0.1198830409356725</v>
       </c>
       <c r="H50" t="n">
-        <v>0.08974358974358974</v>
+        <v>2.157894736842105</v>
       </c>
       <c r="I50" t="n">
-        <v>1.076923076923077</v>
+        <v>5</v>
       </c>
       <c r="J50" t="n">
-        <v>3</v>
-      </c>
-      <c r="K50" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_60</t>
+          <t>Sampling_Web_53</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C51" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1.904761904761905</v>
       </c>
       <c r="F51" t="n">
-        <v>2.797385620915033</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0718954248366013</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I51" t="n">
-        <v>1.222222222222222</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
-      </c>
-      <c r="K51" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_61</t>
+          <t>Sampling_Web_54</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C52" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>3.176470588235294</v>
       </c>
       <c r="F52" t="n">
-        <v>2.161904761904762</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0.07123456790123457</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0761904761904762</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="I52" t="n">
-        <v>1.066666666666667</v>
+        <v>4</v>
       </c>
       <c r="J52" t="n">
-        <v>3</v>
-      </c>
-      <c r="K52" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_62</t>
+          <t>Sampling_Web_55</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C53" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3.422924901185771</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.04940711462450593</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1.08695652173913</v>
+      </c>
+      <c r="I53" t="n">
         <v>5</v>
       </c>
-      <c r="E53" t="n">
-        <v>2</v>
-      </c>
-      <c r="F53" t="n">
-        <v>3.191666666666667</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.065625</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.07083333333333333</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1.0625</v>
-      </c>
       <c r="J53" t="n">
-        <v>5</v>
-      </c>
-      <c r="K53" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_63</t>
+          <t>Sampling_Web_56</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C54" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>2.111111111111111</v>
       </c>
       <c r="F54" t="n">
-        <v>2.544117647058823</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="H54" t="n">
-        <v>0.05882352941176471</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9411764705882353</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>3</v>
-      </c>
-      <c r="K54" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_64</t>
+          <t>Sampling_Web_58</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C55" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D55" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>25</v>
+        <v>2.714285714285714</v>
       </c>
       <c r="F55" t="n">
-        <v>2.484848484848485</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0.5872685185185186</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="H55" t="n">
-        <v>0.2727272727272727</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J55" t="n">
-        <v>4</v>
-      </c>
-      <c r="K55" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_65</t>
+          <t>Sampling_Web_59</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>13</v>
       </c>
       <c r="C56" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D56" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>2.538461538461538</v>
       </c>
       <c r="F56" t="n">
-        <v>2.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>0.08974358974358974</v>
       </c>
       <c r="H56" t="n">
-        <v>0.07692307692307693</v>
+        <v>1.076923076923077</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9230769230769231</v>
+        <v>3</v>
       </c>
       <c r="J56" t="n">
-        <v>4</v>
-      </c>
-      <c r="K56" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_66</t>
+          <t>Sampling_Web_60</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C57" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>2.797385620915033</v>
       </c>
       <c r="F57" t="n">
-        <v>1.904761904761905</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>0.0718954248366013</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1428571428571428</v>
+        <v>1.222222222222222</v>
       </c>
       <c r="I57" t="n">
-        <v>0.8571428571428571</v>
+        <v>4</v>
       </c>
       <c r="J57" t="n">
-        <v>3</v>
-      </c>
-      <c r="K57" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_67</t>
+          <t>Sampling_Web_61</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C58" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E58" t="n">
-        <v>2</v>
+        <v>2.161904761904762</v>
       </c>
       <c r="F58" t="n">
-        <v>2.967032967032967</v>
+        <v>0.07123456790123457</v>
       </c>
       <c r="G58" t="n">
-        <v>0.05952380952380952</v>
+        <v>0.0761904761904762</v>
       </c>
       <c r="H58" t="n">
-        <v>0.1538461538461539</v>
+        <v>1.066666666666667</v>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
-      </c>
-      <c r="K58" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_68</t>
+          <t>Sampling_Web_62</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C59" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D59" t="n">
+        <v>2</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3.191666666666667</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.065625</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.07083333333333333</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1.0625</v>
+      </c>
+      <c r="I59" t="n">
         <v>5</v>
       </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2.868131868131868</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0.0989010989010989</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1.285714285714286</v>
-      </c>
       <c r="J59" t="n">
-        <v>5</v>
-      </c>
-      <c r="K59" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Sampling_GPT_69</t>
+          <t>Sampling_Web_63</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C60" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>2.544117647058823</v>
       </c>
       <c r="F60" t="n">
-        <v>2.53030303030303</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="H60" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9166666666666666</v>
+        <v>3</v>
       </c>
       <c r="J60" t="n">
-        <v>3</v>
-      </c>
-      <c r="K60" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Sampling_GPT_70</t>
+          <t>Sampling_Web_64</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C61" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E61" t="n">
-        <v>2</v>
+        <v>2.484848484848485</v>
       </c>
       <c r="F61" t="n">
-        <v>2.163636363636364</v>
+        <v>0.5872685185185186</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03636363636363637</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="H61" t="n">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
-      </c>
-      <c r="K61" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Sampling_GPT_71</t>
+          <t>Sampling_Web_65</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>4</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="F62" t="n">
-        <v>1.892857142857143</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1375</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="H62" t="n">
-        <v>0.1964285714285714</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="I62" t="n">
-        <v>1.375</v>
+        <v>4</v>
       </c>
       <c r="J62" t="n">
-        <v>3</v>
-      </c>
-      <c r="K62" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Sampling_GPT_72</t>
+          <t>Sampling_Web_66</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C63" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>1.904761904761905</v>
       </c>
       <c r="F63" t="n">
-        <v>2.736842105263158</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H63" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I63" t="n">
-        <v>0.9473684210526315</v>
+        <v>3</v>
       </c>
       <c r="J63" t="n">
-        <v>3</v>
-      </c>
-      <c r="K63" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Sampling_GPT_73</t>
+          <t>Sampling_Web_67</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C64" t="n">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D64" t="n">
-        <v>4.6</v>
+        <v>2</v>
       </c>
       <c r="E64" t="n">
-        <v>10</v>
+        <v>2.967032967032967</v>
       </c>
       <c r="F64" t="n">
-        <v>3.046370967741935</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0709878663003663</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="H64" t="n">
-        <v>0.04536290322580645</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>1.40625</v>
+        <v>4</v>
       </c>
       <c r="J64" t="n">
-        <v>6</v>
-      </c>
-      <c r="K64" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Sampling_GPT_74</t>
+          <t>Sampling_Web_68</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C65" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>2.868131868131868</v>
       </c>
       <c r="F65" t="n">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03732638888888889</v>
+        <v>0.0989010989010989</v>
       </c>
       <c r="H65" t="n">
-        <v>0.06666666666666667</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J65" t="n">
-        <v>3</v>
-      </c>
-      <c r="K65" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Sampling_GPT_75</t>
+          <t>Sampling_GPT_69</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C66" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D66" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>2.53030303030303</v>
       </c>
       <c r="F66" t="n">
-        <v>3.253763440860215</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03246484698097601</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="H66" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J66" t="n">
-        <v>4</v>
-      </c>
-      <c r="K66" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Sampling_GPT_76</t>
+          <t>Sampling_GPT_70</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C67" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>4</v>
+        <v>2.163636363636364</v>
       </c>
       <c r="F67" t="n">
-        <v>1.722222222222222</v>
+        <v>0.03636363636363637</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1944444444444444</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>1.555555555555556</v>
+        <v>3</v>
       </c>
       <c r="J67" t="n">
-        <v>3</v>
-      </c>
-      <c r="K67" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Sampling_GPT_77</t>
+          <t>Sampling_GPT_71</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C68" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>1.892857142857143</v>
       </c>
       <c r="F68" t="n">
-        <v>2.966666666666667</v>
+        <v>0.1375</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="H68" t="n">
-        <v>0.125</v>
+        <v>1.375</v>
       </c>
       <c r="I68" t="n">
-        <v>1.875</v>
+        <v>3</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
-      </c>
-      <c r="K68" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Sampling_GPT_78</t>
+          <t>Sampling_GPT_72</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C69" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>2.736842105263158</v>
       </c>
       <c r="F69" t="n">
-        <v>2.794117647058823</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0.02042483660130719</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1102941176470588</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="I69" t="n">
-        <v>1.764705882352941</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
-        <v>3</v>
-      </c>
-      <c r="K69" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_79</t>
+          <t>Sampling_GPT_73</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C70" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>3.046370967741935</v>
       </c>
       <c r="F70" t="n">
-        <v>2.725274725274725</v>
+        <v>0.0709878663003663</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>0.04536290322580645</v>
       </c>
       <c r="H70" t="n">
-        <v>0.1428571428571428</v>
+        <v>1.40625</v>
       </c>
       <c r="I70" t="n">
-        <v>1.857142857142857</v>
+        <v>3</v>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
-      </c>
-      <c r="K70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_80</t>
+          <t>Sampling_GPT_74</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C71" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="F71" t="n">
-        <v>2.515151515151515</v>
+        <v>0.03732638888888889</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="H71" t="n">
-        <v>0.08333333333333333</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>0.9166666666666666</v>
+        <v>3</v>
       </c>
       <c r="J71" t="n">
-        <v>3</v>
-      </c>
-      <c r="K71" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_81</t>
+          <t>Sampling_GPT_75</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C72" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>3.253763440860215</v>
       </c>
       <c r="F72" t="n">
-        <v>3.066666666666667</v>
+        <v>0.03246484698097601</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K72" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_82</t>
+          <t>Sampling_GPT_76</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>1.722222222222222</v>
       </c>
       <c r="F73" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1071428571428571</v>
+        <v>1.555555555555556</v>
       </c>
       <c r="I73" t="n">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="J73" t="n">
-        <v>2</v>
-      </c>
-      <c r="K73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_83</t>
+          <t>Sampling_GPT_77</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C74" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>2.966666666666667</v>
       </c>
       <c r="F74" t="n">
-        <v>2.111111111111111</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H74" t="n">
-        <v>0.2222222222222222</v>
+        <v>1.875</v>
       </c>
       <c r="I74" t="n">
-        <v>1.777777777777778</v>
+        <v>4</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
-      </c>
-      <c r="K74" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Book_84</t>
+          <t>Sampling_GPT_78</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C75" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>2.794117647058823</v>
       </c>
       <c r="F75" t="n">
-        <v>2.666666666666667</v>
+        <v>0.02042483660130719</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>0.1102941176470588</v>
       </c>
       <c r="H75" t="n">
-        <v>0.07692307692307693</v>
+        <v>1.764705882352941</v>
       </c>
       <c r="I75" t="n">
-        <v>0.9230769230769231</v>
+        <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>3</v>
-      </c>
-      <c r="K75" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Book_85</t>
+          <t>Sampling_Web_79</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C76" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>2.725274725274725</v>
       </c>
       <c r="F76" t="n">
-        <v>1.928571428571429</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="H76" t="n">
-        <v>0.25</v>
+        <v>1.857142857142857</v>
       </c>
       <c r="I76" t="n">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
-      </c>
-      <c r="K76" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_86</t>
+          <t>Sampling_Web_80</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C77" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D77" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>23</v>
+        <v>2.515151515151515</v>
       </c>
       <c r="F77" t="n">
-        <v>2.77536231884058</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0.2296626984126984</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="H77" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="I77" t="n">
-        <v>1.916666666666667</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>4</v>
-      </c>
-      <c r="K77" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_87</t>
+          <t>Sampling_Web_81</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C78" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>3.066666666666667</v>
       </c>
       <c r="F78" t="n">
-        <v>2.58974358974359</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H78" t="n">
-        <v>0.108974358974359</v>
+        <v>1.5</v>
       </c>
       <c r="I78" t="n">
-        <v>1.307692307692308</v>
+        <v>4</v>
       </c>
       <c r="J78" t="n">
-        <v>1</v>
-      </c>
-      <c r="K78" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_89</t>
+          <t>Sampling_Web_82</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C79" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.1071428571428571</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I79" t="n">
         <v>2</v>
       </c>
-      <c r="F79" t="n">
-        <v>2.307692307692307</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0.05631868131868132</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0.1263736263736264</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1.642857142857143</v>
-      </c>
       <c r="J79" t="n">
-        <v>5</v>
-      </c>
-      <c r="K79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_90</t>
+          <t>Sampling_Web_83</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C80" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D80" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>2.111111111111111</v>
       </c>
       <c r="F80" t="n">
-        <v>2.757575757575758</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="H80" t="n">
-        <v>0.08333333333333333</v>
+        <v>1.777777777777778</v>
       </c>
       <c r="I80" t="n">
-        <v>0.9166666666666666</v>
+        <v>3</v>
       </c>
       <c r="J80" t="n">
-        <v>4</v>
-      </c>
-      <c r="K80" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_91</t>
+          <t>Sampling_Book_84</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C81" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D81" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="F81" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="H81" t="n">
-        <v>0.07857142857142857</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="I81" t="n">
-        <v>1.571428571428571</v>
+        <v>3</v>
       </c>
       <c r="J81" t="n">
-        <v>4</v>
-      </c>
-      <c r="K81" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_92</t>
+          <t>Sampling_Book_85</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C82" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>2</v>
+        <v>1.928571428571429</v>
       </c>
       <c r="F82" t="n">
-        <v>2.327272727272727</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H82" t="n">
-        <v>0.1090909090909091</v>
+        <v>1.75</v>
       </c>
       <c r="I82" t="n">
-        <v>1.090909090909091</v>
+        <v>3</v>
       </c>
       <c r="J82" t="n">
-        <v>3</v>
-      </c>
-      <c r="K82" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_93</t>
+          <t>Sampling_Web_86</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C83" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>2.77536231884058</v>
       </c>
       <c r="F83" t="n">
-        <v>2.25</v>
+        <v>0.2296626984126984</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1428571428571428</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J83" t="n">
-        <v>1</v>
-      </c>
-      <c r="K83" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_94</t>
+          <t>Sampling_Web_87</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C84" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D84" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>2.58974358974359</v>
       </c>
       <c r="F84" t="n">
-        <v>2.509090909090909</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>0.108974358974359</v>
       </c>
       <c r="H84" t="n">
-        <v>0.09090909090909091</v>
+        <v>1.307692307692308</v>
       </c>
       <c r="I84" t="n">
-        <v>0.9090909090909091</v>
+        <v>3</v>
       </c>
       <c r="J84" t="n">
-        <v>4</v>
-      </c>
-      <c r="K84" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_95</t>
+          <t>Sampling_Web_89</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C85" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>2.307692307692307</v>
       </c>
       <c r="F85" t="n">
-        <v>2.897435897435897</v>
+        <v>0.05631868131868132</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>0.1263736263736264</v>
       </c>
       <c r="H85" t="n">
-        <v>0.08974358974358974</v>
+        <v>1.642857142857143</v>
       </c>
       <c r="I85" t="n">
-        <v>1.076923076923077</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>5</v>
-      </c>
-      <c r="K85" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Sampling_Web_96</t>
+          <t>Sampling_Web_90</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C86" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>2.757575757575758</v>
       </c>
       <c r="F86" t="n">
-        <v>2.196969696969697</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="H86" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="I86" t="n">
-        <v>0.9230769230769231</v>
+        <v>4</v>
       </c>
       <c r="J86" t="n">
         <v>1</v>
-      </c>
-      <c r="K86" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
+          <t>Sampling_Web_91</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>21</v>
+      </c>
+      <c r="C87" t="n">
+        <v>33</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.07857142857142857</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1.571428571428571</v>
+      </c>
+      <c r="I87" t="n">
+        <v>4</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>Sampling_Web_92</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>11</v>
+      </c>
+      <c r="C88" t="n">
+        <v>12</v>
+      </c>
+      <c r="D88" t="n">
+        <v>2</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2.327272727272727</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.1090909090909091</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1.090909090909091</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>Sampling_Web_93</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>8</v>
+      </c>
+      <c r="C89" t="n">
+        <v>8</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>4</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>Sampling_Web_94</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>11</v>
+      </c>
+      <c r="C90" t="n">
+        <v>10</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2.509090909090909</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="I90" t="n">
+        <v>4</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>Sampling_Web_95</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>13</v>
+      </c>
+      <c r="C91" t="n">
+        <v>14</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2.897435897435897</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.08974358974358974</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1.076923076923077</v>
+      </c>
+      <c r="I91" t="n">
+        <v>4</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>Sampling_Web_96</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>13</v>
+      </c>
+      <c r="C92" t="n">
+        <v>12</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2.196969696969697</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="I92" t="n">
+        <v>3</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
           <t>Sampling_Web_97</t>
         </is>
       </c>
-      <c r="B87" t="n">
+      <c r="B93" t="n">
         <v>23</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C93" t="n">
         <v>36</v>
       </c>
-      <c r="D87" t="n">
-        <v>6</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0</v>
-      </c>
-      <c r="F87" t="n">
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
         <v>3.138339920948617</v>
       </c>
-      <c r="G87" t="n">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
         <v>0.07114624505928854</v>
       </c>
-      <c r="I87" t="n">
+      <c r="H93" t="n">
         <v>1.565217391304348</v>
       </c>
-      <c r="J87" t="n">
-        <v>6</v>
-      </c>
-      <c r="K87" t="n">
+      <c r="I93" t="n">
+        <v>5</v>
+      </c>
+      <c r="J93" t="n">
         <v>1</v>
       </c>
     </row>

--- a/result/Sampling_indiv.xlsx
+++ b/result/Sampling_indiv.xlsx
@@ -1280,7 +1280,7 @@
         <v>19</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>1.993939393939394</v>
